--- a/soal_angka.xlsx
+++ b/soal_angka.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GTA3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D5626E-1AAB-4B9C-8043-7D64BE55E03C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429D7A6E-1A40-406C-9B32-1AAFB287AB6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4920" xr2:uid="{0CAA68AD-5BC5-4D3A-8A33-7401F4560AB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0CAA68AD-5BC5-4D3A-8A33-7401F4560AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -379,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9146EA17-FFE2-4A38-87E6-EEE784799E81}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,41 +451,6 @@
         <v>95643</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>45623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>78652</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>43567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>23453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>23654</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>12323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>12384</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
